--- a/SG.xlsx
+++ b/SG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12859E-5804-BD41-BB15-4A3E73481DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3B015-3F96-2741-B34E-80860C3C1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="740" windowWidth="48240" windowHeight="22200" activeTab="2" xr2:uid="{A3B08A1F-1CC9-5042-8389-99D1D3DAFAFB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{A3B08A1F-1CC9-5042-8389-99D1D3DAFAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="cmg baseline model" sheetId="3" r:id="rId1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="238">
   <si>
     <t>P</t>
   </si>
@@ -989,6 +989,12 @@
   </si>
   <si>
     <t>Ending Cash</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Filings</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0\x"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1261,7 +1267,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1469,16 +1475,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1487,8 +1488,11 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -10455,10 +10459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A26A9DB-4F78-8E45-9F2C-D2EFF3688216}">
-  <dimension ref="B1:O49"/>
+  <dimension ref="B1:S49"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10483,20 +10487,23 @@
       <c r="C1" s="81" t="s">
         <v>210</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="104">
         <v>39022</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="97" t="s">
         <v>128</v>
       </c>
       <c r="D4" s="85"/>
@@ -10505,14 +10512,14 @@
       <c r="B5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="81" t="s">
         <v>140</v>
       </c>
       <c r="D5" s="79"/>
       <c r="J5" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="94">
+      <c r="K5" s="93">
         <v>28</v>
       </c>
       <c r="L5" s="85"/>
@@ -10521,14 +10528,14 @@
       <c r="B6" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="81" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="79"/>
       <c r="J6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="94">
         <v>29.25</v>
       </c>
       <c r="L6" s="79"/>
@@ -10537,14 +10544,14 @@
       <c r="B7" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="81" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="79"/>
       <c r="J7" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="1">
         <f>100.440089+12.871027</f>
         <v>113.311116</v>
       </c>
@@ -10556,14 +10563,14 @@
       <c r="B8" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="81" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="79"/>
       <c r="J8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="1">
         <f>+K6*K7</f>
         <v>3314.3501430000001</v>
       </c>
@@ -10573,14 +10580,14 @@
       <c r="B9" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="81" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="79"/>
       <c r="J9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="1">
         <v>243.756</v>
       </c>
       <c r="L9" s="79" t="str">
@@ -10592,14 +10599,14 @@
       <c r="B10" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="81" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="79"/>
       <c r="J10" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="79" t="str">
@@ -10611,7 +10618,7 @@
       <c r="B11" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="81" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="79" t="s">
@@ -10624,64 +10631,64 @@
         <f>+K8-K9+K10</f>
         <v>3070.5941430000003</v>
       </c>
-      <c r="L11" s="97"/>
+      <c r="L11" s="95"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="103" t="s">
+    <row r="17" spans="2:19">
+      <c r="B17" s="100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="103" t="s">
+    <row r="18" spans="2:19">
+      <c r="B18" s="100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="103" t="s">
+    <row r="19" spans="2:19">
+      <c r="B19" s="100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="103" t="s">
+    <row r="20" spans="2:19">
+      <c r="B20" s="100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="103" t="s">
+    <row r="21" spans="2:19">
+      <c r="B21" s="100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="103" t="s">
+    <row r="22" spans="2:19">
+      <c r="B22" s="100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="103" t="s">
+    <row r="23" spans="2:19">
+      <c r="B23" s="100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="103"/>
+    <row r="24" spans="2:19">
+      <c r="B24" s="100"/>
       <c r="D24" s="82" t="s">
         <v>180</v>
       </c>
@@ -10691,12 +10698,15 @@
       <c r="N24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O24" s="106" t="s">
+      <c r="O24" s="103" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="104"/>
+      <c r="S24" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="101"/>
       <c r="D25" s="83">
         <v>45421</v>
       </c>
@@ -10706,11 +10716,11 @@
       <c r="N25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O25" s="105">
+      <c r="O25" s="102">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:19">
       <c r="D26" s="83">
         <v>45419</v>
       </c>
@@ -10720,11 +10730,11 @@
       <c r="N26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O26" s="105">
+      <c r="O26" s="102">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:19">
       <c r="D27" s="83">
         <v>45328</v>
       </c>
@@ -10734,11 +10744,11 @@
       <c r="N27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O27" s="105">
+      <c r="O27" s="102">
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:19">
       <c r="D28" s="83">
         <v>45324</v>
       </c>
@@ -10748,11 +10758,11 @@
       <c r="N28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O28" s="105">
+      <c r="O28" s="102">
         <v>17.95</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:19">
       <c r="D29" s="83">
         <v>45307</v>
       </c>
@@ -10762,11 +10772,11 @@
       <c r="N29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O29" s="105">
+      <c r="O29" s="102">
         <v>16.45</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:19">
       <c r="D30" s="83">
         <v>45232</v>
       </c>
@@ -10776,11 +10786,11 @@
       <c r="N30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O30" s="105">
+      <c r="O30" s="102">
         <v>15.45</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:19">
       <c r="D31" s="83">
         <v>45223</v>
       </c>
@@ -10790,11 +10800,11 @@
       <c r="N31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O31" s="105">
+      <c r="O31" s="102">
         <v>16.25</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:19">
       <c r="D32" s="83">
         <v>45217</v>
       </c>
@@ -10804,7 +10814,7 @@
       <c r="N32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O32" s="105">
+      <c r="O32" s="102">
         <v>15.75</v>
       </c>
     </row>
@@ -10818,7 +10828,7 @@
       <c r="N33" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O33" s="105">
+      <c r="O33" s="102">
         <v>15.25</v>
       </c>
     </row>
@@ -10832,7 +10842,7 @@
       <c r="N34" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O34" s="105">
+      <c r="O34" s="102">
         <v>14.95</v>
       </c>
     </row>
@@ -10846,7 +10856,7 @@
       <c r="N35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O35" s="105">
+      <c r="O35" s="102">
         <v>17.95</v>
       </c>
     </row>
@@ -10860,7 +10870,7 @@
       <c r="N36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O36" s="105">
+      <c r="O36" s="102">
         <v>15.25</v>
       </c>
     </row>
@@ -10874,7 +10884,7 @@
       <c r="N37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O37" s="105">
+      <c r="O37" s="102">
         <v>14.95</v>
       </c>
     </row>
@@ -10888,7 +10898,7 @@
       <c r="N38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="O38" s="105">
+      <c r="O38" s="102">
         <v>13.95</v>
       </c>
     </row>
@@ -10902,7 +10912,7 @@
       <c r="N39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O39" s="105">
+      <c r="O39" s="102">
         <v>16.25</v>
       </c>
     </row>
@@ -10916,7 +10926,7 @@
       <c r="N40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O40" s="105">
+      <c r="O40" s="102">
         <v>11.45</v>
       </c>
     </row>
@@ -10930,7 +10940,7 @@
       <c r="N41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O41" s="105">
+      <c r="O41" s="102">
         <v>15.75</v>
       </c>
     </row>
@@ -10944,7 +10954,7 @@
       <c r="N42" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O42" s="105"/>
+      <c r="O42" s="102"/>
     </row>
     <row r="43" spans="4:15">
       <c r="D43" s="83">
@@ -10956,7 +10966,7 @@
       <c r="N43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O43" s="105">
+      <c r="O43" s="102">
         <v>8.5500000000000007</v>
       </c>
     </row>
@@ -10970,7 +10980,7 @@
       <c r="N44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O44" s="105">
+      <c r="O44" s="102">
         <v>8.5500000000000007</v>
       </c>
     </row>
@@ -10984,7 +10994,7 @@
       <c r="N45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O45" s="105">
+      <c r="O45" s="102">
         <v>8.5500000000000007</v>
       </c>
     </row>
@@ -10992,13 +11002,13 @@
       <c r="N46" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="O46" s="105"/>
+      <c r="O46" s="102"/>
     </row>
     <row r="47" spans="4:15">
       <c r="N47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O47" s="105">
+      <c r="O47" s="102">
         <v>2.65</v>
       </c>
     </row>
@@ -11006,7 +11016,7 @@
       <c r="N48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="105">
+      <c r="O48" s="102">
         <v>4.45</v>
       </c>
     </row>
@@ -11014,7 +11024,7 @@
       <c r="N49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O49" s="105">
+      <c r="O49" s="102">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -11041,6 +11051,7 @@
     <hyperlink ref="D44" r:id="rId19" display="https://investor.sweetgreen.com/press/news-details/2022/Sweetgreen-to-Open-Its-First-Ever-sweetlane-Restaurant-Concept/default.aspx" xr:uid="{A1553039-9F75-6749-9FE9-97C416013D71}"/>
     <hyperlink ref="D45" r:id="rId20" display="https://investor.sweetgreen.com/press/news-details/2021/sweetgreen-to-Acquire-Boston-based-Spyce-to-Scale-the-Future-of-Healthy-Fast-Food/default.aspx" xr:uid="{C637578B-21D2-1D46-96A7-C7FFB329C108}"/>
     <hyperlink ref="D29" r:id="rId21" display="https://investor.sweetgreen.com/press/news-details/2024/Sweetgreen-Makes-Its-Pacific-Northwest-Debut-in-Seattle/default.aspx" xr:uid="{3A8E2388-F58C-DA44-8ED4-87A83CABD377}"/>
+    <hyperlink ref="E1" r:id="rId22" display="sec.gov" xr:uid="{85EF4AC4-84CB-6543-9F20-A6FFEB336E62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11050,17 +11061,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7872FD-27E2-8840-935A-09595DF08E27}">
   <dimension ref="A2:IB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.6640625" style="1"/>
@@ -11069,15 +11080,15 @@
     <col min="27" max="30" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="95" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="236" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="147" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="236" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="237" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:236">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11194,803 +11205,803 @@
         <f t="shared" ref="AJ2" si="2">+AI2+1</f>
         <v>2033</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="2">
         <f>+AJ2+1</f>
         <v>2034</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="2">
         <f t="shared" ref="AL2:CW2" si="3">+AK2+1</f>
         <v>2035</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="2">
         <f t="shared" si="3"/>
         <v>2036</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="2">
         <f t="shared" si="3"/>
         <v>2037</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="2">
         <f t="shared" si="3"/>
         <v>2038</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="2">
         <f t="shared" si="3"/>
         <v>2039</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="2">
         <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="2">
         <f t="shared" si="3"/>
         <v>2041</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="2">
         <f t="shared" si="3"/>
         <v>2042</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="2">
         <f t="shared" si="3"/>
         <v>2043</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="2">
         <f t="shared" si="3"/>
         <v>2044</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="2">
         <f t="shared" si="3"/>
         <v>2045</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="2">
         <f t="shared" si="3"/>
         <v>2046</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="2">
         <f t="shared" si="3"/>
         <v>2047</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="2">
         <f t="shared" si="3"/>
         <v>2048</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="2">
         <f t="shared" si="3"/>
         <v>2049</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="2">
         <f t="shared" si="3"/>
         <v>2050</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="2">
         <f t="shared" si="3"/>
         <v>2051</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="2">
         <f t="shared" si="3"/>
         <v>2052</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="2">
         <f t="shared" si="3"/>
         <v>2053</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="2">
         <f t="shared" si="3"/>
         <v>2054</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="2">
         <f t="shared" si="3"/>
         <v>2055</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="2">
         <f t="shared" si="3"/>
         <v>2056</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="2">
         <f t="shared" si="3"/>
         <v>2057</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="2">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="2">
         <f t="shared" si="3"/>
         <v>2059</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="2">
         <f t="shared" si="3"/>
         <v>2060</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="2">
         <f t="shared" si="3"/>
         <v>2061</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BM2" s="2">
         <f t="shared" si="3"/>
         <v>2062</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="2">
         <f t="shared" si="3"/>
         <v>2063</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BO2" s="2">
         <f t="shared" si="3"/>
         <v>2064</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BP2" s="2">
         <f t="shared" si="3"/>
         <v>2065</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BQ2" s="2">
         <f t="shared" si="3"/>
         <v>2066</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2" s="2">
         <f t="shared" si="3"/>
         <v>2067</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BS2" s="2">
         <f t="shared" si="3"/>
         <v>2068</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BT2" s="2">
         <f t="shared" si="3"/>
         <v>2069</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BU2" s="2">
         <f t="shared" si="3"/>
         <v>2070</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2" s="2">
         <f t="shared" si="3"/>
         <v>2071</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BW2" s="2">
         <f t="shared" si="3"/>
         <v>2072</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BX2" s="2">
         <f t="shared" si="3"/>
         <v>2073</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="BY2" s="2">
         <f t="shared" si="3"/>
         <v>2074</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="BZ2" s="2">
         <f t="shared" si="3"/>
         <v>2075</v>
       </c>
-      <c r="CA2" s="1">
+      <c r="CA2" s="2">
         <f t="shared" si="3"/>
         <v>2076</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CB2" s="2">
         <f t="shared" si="3"/>
         <v>2077</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CC2" s="2">
         <f t="shared" si="3"/>
         <v>2078</v>
       </c>
-      <c r="CD2" s="1">
+      <c r="CD2" s="2">
         <f t="shared" si="3"/>
         <v>2079</v>
       </c>
-      <c r="CE2" s="1">
+      <c r="CE2" s="2">
         <f t="shared" si="3"/>
         <v>2080</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CF2" s="2">
         <f t="shared" si="3"/>
         <v>2081</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CG2" s="2">
         <f t="shared" si="3"/>
         <v>2082</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CH2" s="2">
         <f t="shared" si="3"/>
         <v>2083</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CI2" s="2">
         <f t="shared" si="3"/>
         <v>2084</v>
       </c>
-      <c r="CJ2" s="1">
+      <c r="CJ2" s="2">
         <f t="shared" si="3"/>
         <v>2085</v>
       </c>
-      <c r="CK2" s="1">
+      <c r="CK2" s="2">
         <f t="shared" si="3"/>
         <v>2086</v>
       </c>
-      <c r="CL2" s="1">
+      <c r="CL2" s="2">
         <f t="shared" si="3"/>
         <v>2087</v>
       </c>
-      <c r="CM2" s="1">
+      <c r="CM2" s="2">
         <f t="shared" si="3"/>
         <v>2088</v>
       </c>
-      <c r="CN2" s="1">
+      <c r="CN2" s="2">
         <f t="shared" si="3"/>
         <v>2089</v>
       </c>
-      <c r="CO2" s="1">
+      <c r="CO2" s="2">
         <f t="shared" si="3"/>
         <v>2090</v>
       </c>
-      <c r="CP2" s="1">
+      <c r="CP2" s="2">
         <f t="shared" si="3"/>
         <v>2091</v>
       </c>
-      <c r="CQ2" s="1">
+      <c r="CQ2" s="2">
         <f t="shared" si="3"/>
         <v>2092</v>
       </c>
-      <c r="CR2" s="1">
+      <c r="CR2" s="2">
         <f t="shared" si="3"/>
         <v>2093</v>
       </c>
-      <c r="CS2" s="1">
+      <c r="CS2" s="2">
         <f t="shared" si="3"/>
         <v>2094</v>
       </c>
-      <c r="CT2" s="1">
+      <c r="CT2" s="2">
         <f t="shared" si="3"/>
         <v>2095</v>
       </c>
-      <c r="CU2" s="1">
+      <c r="CU2" s="2">
         <f t="shared" si="3"/>
         <v>2096</v>
       </c>
-      <c r="CV2" s="1">
+      <c r="CV2" s="2">
         <f t="shared" si="3"/>
         <v>2097</v>
       </c>
-      <c r="CW2" s="1">
+      <c r="CW2" s="2">
         <f t="shared" si="3"/>
         <v>2098</v>
       </c>
-      <c r="CX2" s="1">
+      <c r="CX2" s="2">
         <f t="shared" ref="CX2:CY2" si="4">+CW2+1</f>
         <v>2099</v>
       </c>
-      <c r="CY2" s="1">
+      <c r="CY2" s="2">
         <f t="shared" si="4"/>
         <v>2100</v>
       </c>
-      <c r="CZ2" s="1">
+      <c r="CZ2" s="2">
         <f t="shared" ref="CZ2:DV2" si="5">+CY2+1</f>
         <v>2101</v>
       </c>
-      <c r="DA2" s="1">
+      <c r="DA2" s="2">
         <f t="shared" si="5"/>
         <v>2102</v>
       </c>
-      <c r="DB2" s="1">
+      <c r="DB2" s="2">
         <f t="shared" si="5"/>
         <v>2103</v>
       </c>
-      <c r="DC2" s="1">
+      <c r="DC2" s="2">
         <f t="shared" si="5"/>
         <v>2104</v>
       </c>
-      <c r="DD2" s="1">
+      <c r="DD2" s="2">
         <f t="shared" si="5"/>
         <v>2105</v>
       </c>
-      <c r="DE2" s="1">
+      <c r="DE2" s="2">
         <f t="shared" si="5"/>
         <v>2106</v>
       </c>
-      <c r="DF2" s="1">
+      <c r="DF2" s="2">
         <f t="shared" si="5"/>
         <v>2107</v>
       </c>
-      <c r="DG2" s="1">
+      <c r="DG2" s="2">
         <f t="shared" si="5"/>
         <v>2108</v>
       </c>
-      <c r="DH2" s="1">
+      <c r="DH2" s="2">
         <f t="shared" si="5"/>
         <v>2109</v>
       </c>
-      <c r="DI2" s="1">
+      <c r="DI2" s="2">
         <f t="shared" si="5"/>
         <v>2110</v>
       </c>
-      <c r="DJ2" s="1">
+      <c r="DJ2" s="2">
         <f t="shared" si="5"/>
         <v>2111</v>
       </c>
-      <c r="DK2" s="1">
+      <c r="DK2" s="2">
         <f t="shared" si="5"/>
         <v>2112</v>
       </c>
-      <c r="DL2" s="1">
+      <c r="DL2" s="2">
         <f t="shared" si="5"/>
         <v>2113</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DM2" s="2">
         <f t="shared" si="5"/>
         <v>2114</v>
       </c>
-      <c r="DN2" s="1">
+      <c r="DN2" s="2">
         <f t="shared" si="5"/>
         <v>2115</v>
       </c>
-      <c r="DO2" s="1">
+      <c r="DO2" s="2">
         <f t="shared" si="5"/>
         <v>2116</v>
       </c>
-      <c r="DP2" s="1">
+      <c r="DP2" s="2">
         <f t="shared" si="5"/>
         <v>2117</v>
       </c>
-      <c r="DQ2" s="1">
+      <c r="DQ2" s="2">
         <f t="shared" si="5"/>
         <v>2118</v>
       </c>
-      <c r="DR2" s="1">
+      <c r="DR2" s="2">
         <f t="shared" si="5"/>
         <v>2119</v>
       </c>
-      <c r="DS2" s="1">
+      <c r="DS2" s="2">
         <f t="shared" si="5"/>
         <v>2120</v>
       </c>
-      <c r="DT2" s="1">
+      <c r="DT2" s="2">
         <f t="shared" si="5"/>
         <v>2121</v>
       </c>
-      <c r="DU2" s="1">
+      <c r="DU2" s="2">
         <f t="shared" si="5"/>
         <v>2122</v>
       </c>
-      <c r="DV2" s="1">
+      <c r="DV2" s="2">
         <f t="shared" si="5"/>
         <v>2123</v>
       </c>
-      <c r="DW2" s="1">
+      <c r="DW2" s="2">
         <f t="shared" ref="DW2:EU2" si="6">+DV2+1</f>
         <v>2124</v>
       </c>
-      <c r="DX2" s="1">
+      <c r="DX2" s="2">
         <f t="shared" si="6"/>
         <v>2125</v>
       </c>
-      <c r="DY2" s="1">
+      <c r="DY2" s="2">
         <f t="shared" si="6"/>
         <v>2126</v>
       </c>
-      <c r="DZ2" s="1">
+      <c r="DZ2" s="2">
         <f t="shared" si="6"/>
         <v>2127</v>
       </c>
-      <c r="EA2" s="1">
+      <c r="EA2" s="2">
         <f t="shared" si="6"/>
         <v>2128</v>
       </c>
-      <c r="EB2" s="1">
+      <c r="EB2" s="2">
         <f t="shared" si="6"/>
         <v>2129</v>
       </c>
-      <c r="EC2" s="1">
+      <c r="EC2" s="2">
         <f t="shared" si="6"/>
         <v>2130</v>
       </c>
-      <c r="ED2" s="1">
+      <c r="ED2" s="2">
         <f t="shared" si="6"/>
         <v>2131</v>
       </c>
-      <c r="EE2" s="1">
+      <c r="EE2" s="2">
         <f t="shared" si="6"/>
         <v>2132</v>
       </c>
-      <c r="EF2" s="1">
+      <c r="EF2" s="2">
         <f t="shared" si="6"/>
         <v>2133</v>
       </c>
-      <c r="EG2" s="1">
+      <c r="EG2" s="2">
         <f t="shared" si="6"/>
         <v>2134</v>
       </c>
-      <c r="EH2" s="1">
+      <c r="EH2" s="2">
         <f t="shared" si="6"/>
         <v>2135</v>
       </c>
-      <c r="EI2" s="1">
+      <c r="EI2" s="2">
         <f t="shared" si="6"/>
         <v>2136</v>
       </c>
-      <c r="EJ2" s="1">
+      <c r="EJ2" s="2">
         <f t="shared" si="6"/>
         <v>2137</v>
       </c>
-      <c r="EK2" s="1">
+      <c r="EK2" s="2">
         <f t="shared" si="6"/>
         <v>2138</v>
       </c>
-      <c r="EL2" s="1">
+      <c r="EL2" s="2">
         <f t="shared" si="6"/>
         <v>2139</v>
       </c>
-      <c r="EM2" s="1">
+      <c r="EM2" s="2">
         <f t="shared" si="6"/>
         <v>2140</v>
       </c>
-      <c r="EN2" s="1">
+      <c r="EN2" s="2">
         <f t="shared" si="6"/>
         <v>2141</v>
       </c>
-      <c r="EO2" s="1">
+      <c r="EO2" s="2">
         <f t="shared" si="6"/>
         <v>2142</v>
       </c>
-      <c r="EP2" s="1">
+      <c r="EP2" s="2">
         <f t="shared" si="6"/>
         <v>2143</v>
       </c>
-      <c r="EQ2" s="1">
+      <c r="EQ2" s="2">
         <f t="shared" si="6"/>
         <v>2144</v>
       </c>
-      <c r="ER2" s="1">
+      <c r="ER2" s="2">
         <f t="shared" si="6"/>
         <v>2145</v>
       </c>
-      <c r="ES2" s="1">
+      <c r="ES2" s="2">
         <f t="shared" si="6"/>
         <v>2146</v>
       </c>
-      <c r="ET2" s="1">
+      <c r="ET2" s="2">
         <f t="shared" si="6"/>
         <v>2147</v>
       </c>
-      <c r="EU2" s="1">
+      <c r="EU2" s="2">
         <f t="shared" si="6"/>
         <v>2148</v>
       </c>
-      <c r="EV2" s="1">
+      <c r="EV2" s="2">
         <f t="shared" ref="EV2:FP2" si="7">+EU2+1</f>
         <v>2149</v>
       </c>
-      <c r="EW2" s="1">
+      <c r="EW2" s="2">
         <f t="shared" si="7"/>
         <v>2150</v>
       </c>
-      <c r="EX2" s="1">
+      <c r="EX2" s="2">
         <f t="shared" si="7"/>
         <v>2151</v>
       </c>
-      <c r="EY2" s="1">
+      <c r="EY2" s="2">
         <f t="shared" si="7"/>
         <v>2152</v>
       </c>
-      <c r="EZ2" s="1">
+      <c r="EZ2" s="2">
         <f t="shared" si="7"/>
         <v>2153</v>
       </c>
-      <c r="FA2" s="1">
+      <c r="FA2" s="2">
         <f t="shared" si="7"/>
         <v>2154</v>
       </c>
-      <c r="FB2" s="1">
+      <c r="FB2" s="2">
         <f t="shared" si="7"/>
         <v>2155</v>
       </c>
-      <c r="FC2" s="1">
+      <c r="FC2" s="2">
         <f t="shared" si="7"/>
         <v>2156</v>
       </c>
-      <c r="FD2" s="1">
+      <c r="FD2" s="2">
         <f t="shared" si="7"/>
         <v>2157</v>
       </c>
-      <c r="FE2" s="1">
+      <c r="FE2" s="2">
         <f t="shared" si="7"/>
         <v>2158</v>
       </c>
-      <c r="FF2" s="1">
+      <c r="FF2" s="2">
         <f t="shared" si="7"/>
         <v>2159</v>
       </c>
-      <c r="FG2" s="1">
+      <c r="FG2" s="2">
         <f t="shared" si="7"/>
         <v>2160</v>
       </c>
-      <c r="FH2" s="1">
+      <c r="FH2" s="2">
         <f t="shared" si="7"/>
         <v>2161</v>
       </c>
-      <c r="FI2" s="1">
+      <c r="FI2" s="2">
         <f t="shared" si="7"/>
         <v>2162</v>
       </c>
-      <c r="FJ2" s="1">
+      <c r="FJ2" s="2">
         <f t="shared" si="7"/>
         <v>2163</v>
       </c>
-      <c r="FK2" s="1">
+      <c r="FK2" s="2">
         <f t="shared" si="7"/>
         <v>2164</v>
       </c>
-      <c r="FL2" s="1">
+      <c r="FL2" s="2">
         <f t="shared" si="7"/>
         <v>2165</v>
       </c>
-      <c r="FM2" s="1">
+      <c r="FM2" s="2">
         <f t="shared" si="7"/>
         <v>2166</v>
       </c>
-      <c r="FN2" s="1">
+      <c r="FN2" s="2">
         <f t="shared" si="7"/>
         <v>2167</v>
       </c>
-      <c r="FO2" s="1">
+      <c r="FO2" s="2">
         <f t="shared" si="7"/>
         <v>2168</v>
       </c>
-      <c r="FP2" s="1">
+      <c r="FP2" s="2">
         <f t="shared" si="7"/>
         <v>2169</v>
       </c>
-      <c r="FQ2" s="1">
+      <c r="FQ2" s="2">
         <f t="shared" ref="FQ2:GD2" si="8">+FP2+1</f>
         <v>2170</v>
       </c>
-      <c r="FR2" s="1">
+      <c r="FR2" s="2">
         <f t="shared" si="8"/>
         <v>2171</v>
       </c>
-      <c r="FS2" s="1">
+      <c r="FS2" s="2">
         <f t="shared" si="8"/>
         <v>2172</v>
       </c>
-      <c r="FT2" s="1">
+      <c r="FT2" s="2">
         <f t="shared" si="8"/>
         <v>2173</v>
       </c>
-      <c r="FU2" s="1">
+      <c r="FU2" s="2">
         <f t="shared" si="8"/>
         <v>2174</v>
       </c>
-      <c r="FV2" s="1">
+      <c r="FV2" s="2">
         <f t="shared" si="8"/>
         <v>2175</v>
       </c>
-      <c r="FW2" s="1">
+      <c r="FW2" s="2">
         <f t="shared" si="8"/>
         <v>2176</v>
       </c>
-      <c r="FX2" s="1">
+      <c r="FX2" s="2">
         <f t="shared" si="8"/>
         <v>2177</v>
       </c>
-      <c r="FY2" s="1">
+      <c r="FY2" s="2">
         <f t="shared" si="8"/>
         <v>2178</v>
       </c>
-      <c r="FZ2" s="1">
+      <c r="FZ2" s="2">
         <f t="shared" si="8"/>
         <v>2179</v>
       </c>
-      <c r="GA2" s="1">
+      <c r="GA2" s="2">
         <f t="shared" si="8"/>
         <v>2180</v>
       </c>
-      <c r="GB2" s="1">
+      <c r="GB2" s="2">
         <f t="shared" si="8"/>
         <v>2181</v>
       </c>
-      <c r="GC2" s="1">
+      <c r="GC2" s="2">
         <f t="shared" si="8"/>
         <v>2182</v>
       </c>
-      <c r="GD2" s="1">
+      <c r="GD2" s="2">
         <f t="shared" si="8"/>
         <v>2183</v>
       </c>
-      <c r="GE2" s="1">
+      <c r="GE2" s="2">
         <f t="shared" ref="GE2:GY2" si="9">+GD2+1</f>
         <v>2184</v>
       </c>
-      <c r="GF2" s="1">
+      <c r="GF2" s="2">
         <f t="shared" si="9"/>
         <v>2185</v>
       </c>
-      <c r="GG2" s="1">
+      <c r="GG2" s="2">
         <f t="shared" si="9"/>
         <v>2186</v>
       </c>
-      <c r="GH2" s="1">
+      <c r="GH2" s="2">
         <f t="shared" si="9"/>
         <v>2187</v>
       </c>
-      <c r="GI2" s="1">
+      <c r="GI2" s="2">
         <f t="shared" si="9"/>
         <v>2188</v>
       </c>
-      <c r="GJ2" s="1">
+      <c r="GJ2" s="2">
         <f t="shared" si="9"/>
         <v>2189</v>
       </c>
-      <c r="GK2" s="1">
+      <c r="GK2" s="2">
         <f t="shared" si="9"/>
         <v>2190</v>
       </c>
-      <c r="GL2" s="1">
+      <c r="GL2" s="2">
         <f t="shared" si="9"/>
         <v>2191</v>
       </c>
-      <c r="GM2" s="1">
+      <c r="GM2" s="2">
         <f t="shared" si="9"/>
         <v>2192</v>
       </c>
-      <c r="GN2" s="1">
+      <c r="GN2" s="2">
         <f t="shared" si="9"/>
         <v>2193</v>
       </c>
-      <c r="GO2" s="1">
+      <c r="GO2" s="2">
         <f t="shared" si="9"/>
         <v>2194</v>
       </c>
-      <c r="GP2" s="1">
+      <c r="GP2" s="2">
         <f t="shared" si="9"/>
         <v>2195</v>
       </c>
-      <c r="GQ2" s="1">
+      <c r="GQ2" s="2">
         <f t="shared" si="9"/>
         <v>2196</v>
       </c>
-      <c r="GR2" s="1">
+      <c r="GR2" s="2">
         <f t="shared" si="9"/>
         <v>2197</v>
       </c>
-      <c r="GS2" s="1">
+      <c r="GS2" s="2">
         <f t="shared" si="9"/>
         <v>2198</v>
       </c>
-      <c r="GT2" s="1">
+      <c r="GT2" s="2">
         <f t="shared" si="9"/>
         <v>2199</v>
       </c>
-      <c r="GU2" s="1">
+      <c r="GU2" s="2">
         <f t="shared" si="9"/>
         <v>2200</v>
       </c>
-      <c r="GV2" s="1">
+      <c r="GV2" s="2">
         <f t="shared" si="9"/>
         <v>2201</v>
       </c>
-      <c r="GW2" s="1">
+      <c r="GW2" s="2">
         <f t="shared" si="9"/>
         <v>2202</v>
       </c>
-      <c r="GX2" s="1">
+      <c r="GX2" s="2">
         <f t="shared" si="9"/>
         <v>2203</v>
       </c>
-      <c r="GY2" s="1">
+      <c r="GY2" s="2">
         <f t="shared" si="9"/>
         <v>2204</v>
       </c>
-      <c r="GZ2" s="1">
+      <c r="GZ2" s="2">
         <f t="shared" ref="GZ2:HM2" si="10">+GY2+1</f>
         <v>2205</v>
       </c>
-      <c r="HA2" s="1">
+      <c r="HA2" s="2">
         <f t="shared" si="10"/>
         <v>2206</v>
       </c>
-      <c r="HB2" s="1">
+      <c r="HB2" s="2">
         <f t="shared" si="10"/>
         <v>2207</v>
       </c>
-      <c r="HC2" s="1">
+      <c r="HC2" s="2">
         <f t="shared" si="10"/>
         <v>2208</v>
       </c>
-      <c r="HD2" s="1">
+      <c r="HD2" s="2">
         <f t="shared" si="10"/>
         <v>2209</v>
       </c>
-      <c r="HE2" s="1">
+      <c r="HE2" s="2">
         <f t="shared" si="10"/>
         <v>2210</v>
       </c>
-      <c r="HF2" s="1">
+      <c r="HF2" s="2">
         <f t="shared" si="10"/>
         <v>2211</v>
       </c>
-      <c r="HG2" s="1">
+      <c r="HG2" s="2">
         <f t="shared" si="10"/>
         <v>2212</v>
       </c>
-      <c r="HH2" s="1">
+      <c r="HH2" s="2">
         <f t="shared" si="10"/>
         <v>2213</v>
       </c>
-      <c r="HI2" s="1">
+      <c r="HI2" s="2">
         <f t="shared" si="10"/>
         <v>2214</v>
       </c>
-      <c r="HJ2" s="1">
+      <c r="HJ2" s="2">
         <f t="shared" si="10"/>
         <v>2215</v>
       </c>
-      <c r="HK2" s="1">
+      <c r="HK2" s="2">
         <f t="shared" si="10"/>
         <v>2216</v>
       </c>
-      <c r="HL2" s="1">
+      <c r="HL2" s="2">
         <f t="shared" si="10"/>
         <v>2217</v>
       </c>
-      <c r="HM2" s="1">
+      <c r="HM2" s="2">
         <f t="shared" si="10"/>
         <v>2218</v>
       </c>
-      <c r="HN2" s="1">
+      <c r="HN2" s="2">
         <f t="shared" ref="HN2:HU2" si="11">+HM2+1</f>
         <v>2219</v>
       </c>
-      <c r="HO2" s="1">
+      <c r="HO2" s="2">
         <f t="shared" si="11"/>
         <v>2220</v>
       </c>
-      <c r="HP2" s="1">
+      <c r="HP2" s="2">
         <f t="shared" si="11"/>
         <v>2221</v>
       </c>
-      <c r="HQ2" s="1">
+      <c r="HQ2" s="2">
         <f t="shared" si="11"/>
         <v>2222</v>
       </c>
-      <c r="HR2" s="1">
+      <c r="HR2" s="2">
         <f t="shared" si="11"/>
         <v>2223</v>
       </c>
-      <c r="HS2" s="1">
+      <c r="HS2" s="2">
         <f t="shared" si="11"/>
         <v>2224</v>
       </c>
-      <c r="HT2" s="1">
+      <c r="HT2" s="2">
         <f t="shared" si="11"/>
         <v>2225</v>
       </c>
-      <c r="HU2" s="1">
+      <c r="HU2" s="2">
         <f t="shared" si="11"/>
         <v>2226</v>
       </c>
-      <c r="HV2" s="1">
+      <c r="HV2" s="2">
         <f t="shared" ref="HV2:HX2" si="12">+HU2+1</f>
         <v>2227</v>
       </c>
-      <c r="HW2" s="1">
+      <c r="HW2" s="2">
         <f t="shared" si="12"/>
         <v>2228</v>
       </c>
-      <c r="HX2" s="1">
+      <c r="HX2" s="2">
         <f t="shared" si="12"/>
         <v>2229</v>
       </c>
-      <c r="HY2" s="1">
+      <c r="HY2" s="2">
         <f t="shared" ref="HY2:IA2" si="13">+HX2+1</f>
         <v>2230</v>
       </c>
-      <c r="HZ2" s="1">
+      <c r="HZ2" s="2">
         <f t="shared" si="13"/>
         <v>2231</v>
       </c>
-      <c r="IA2" s="1">
+      <c r="IA2" s="2">
         <f t="shared" si="13"/>
         <v>2232</v>
       </c>
-      <c r="IB2" s="1">
+      <c r="IB2" s="2">
         <f t="shared" ref="IB2" si="14">+IA2+1</f>
         <v>2233</v>
       </c>
@@ -12129,18 +12140,18 @@
       </c>
     </row>
     <row r="5" spans="1:236">
-      <c r="AA5" s="93" t="s">
+      <c r="AA5" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
     </row>
     <row r="6" spans="1:236" s="80" customFormat="1">
       <c r="B6" s="80" t="s">
